--- a/7-1.network get/resource/kr2jp.xlsx
+++ b/7-1.network get/resource/kr2jp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AeroCode\Desktop\MyProject\node-napi-benchmark\7-1.network get\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377AF143-211C-4A53-BF42-A4773BC1C962}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF1805C-0F79-4177-87EE-A4B4EDAEC782}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{495E4641-9371-49E1-9625-91E4161970A5}"/>
+    <workbookView xWindow="8820" yWindow="3810" windowWidth="7500" windowHeight="6000" xr2:uid="{495E4641-9371-49E1-9625-91E4161970A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,27 +41,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>node/sync-request</t>
+    <t>libcurl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addon/libcurl</t>
+    <t>sync-request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yahoo.co.jp</t>
+    <t>axios</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goo.ne.jp</t>
+    <t>yahoo.jp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fresheye.com</t>
+    <t>matome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>duckduckgo</t>
+    <t>livedoor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,47 +243,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$10</c:f>
+              <c:f>Sheet1!$B$3:$C$11</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>addon/libcurl</c:v>
+                    <c:v>libcurl</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>node/sync-request</c:v>
+                    <c:v>sync-request</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>addon/libcurl</c:v>
+                    <c:v>axios</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>node/sync-request</c:v>
+                    <c:v>libcurl</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>addon/libcurl</c:v>
+                    <c:v>sync-request</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>node/sync-request</c:v>
+                    <c:v>axios</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>addon/libcurl</c:v>
+                    <c:v>libcurl</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>node/sync-request</c:v>
+                    <c:v>sync-request</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>axios</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>yahoo.co.jp</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>goo.ne.jp</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>fresheye.com</c:v>
+                    <c:v>yahoo.jp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>matome</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>duckduckgo</c:v>
+                    <c:v>livedoor</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -291,33 +291,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>804</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>406</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1514</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>899</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>311</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>367</c:v>
+                  <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1987</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1825</c:v>
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,60 +405,6 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="0" rIns="38100" bIns="0" anchor="ctr" anchorCtr="0">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="r">
-                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:ln>
-                        <a:noFill/>
-                      </a:ln>
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ko-KR"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="inBase"/>
-              <c:showLegendKey val="1"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-D4BA-46BC-B957-F93AA9781CAD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="4"/>
               <c:spPr>
                 <a:noFill/>
@@ -505,7 +454,61 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-4DBE-4D83-A7B0-5375E997846B}"/>
+                  <c16:uniqueId val="{00000000-FA36-41C7-B28E-6587A4CCB82D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="0" rIns="38100" bIns="0" anchor="ctr" anchorCtr="0">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="r">
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FA36-41C7-B28E-6587A4CCB82D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -576,47 +579,47 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$10</c:f>
+              <c:f>Sheet1!$B$3:$C$11</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>addon/libcurl</c:v>
+                    <c:v>libcurl</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>node/sync-request</c:v>
+                    <c:v>sync-request</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>addon/libcurl</c:v>
+                    <c:v>axios</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>node/sync-request</c:v>
+                    <c:v>libcurl</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>addon/libcurl</c:v>
+                    <c:v>sync-request</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>node/sync-request</c:v>
+                    <c:v>axios</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>addon/libcurl</c:v>
+                    <c:v>libcurl</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>node/sync-request</c:v>
+                    <c:v>sync-request</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>axios</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>yahoo.co.jp</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>goo.ne.jp</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>fresheye.com</c:v>
+                    <c:v>yahoo.jp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>matome</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>duckduckgo</c:v>
+                    <c:v>livedoor</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -624,33 +627,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>804</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>406</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1514</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>899</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>311</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>367</c:v>
+                  <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1987</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1825</c:v>
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,7 +783,6 @@
         <c:axId val="1704127392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -977,8 +982,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>681404</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>205154</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1303,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02418297-9BD5-437B-9372-F7469E5CA7D3}">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1328,84 +1333,81 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>804</v>
+        <v>760</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">SUM(D3:D3)</f>
-        <v>804</v>
+        <f t="shared" ref="E3:E5" si="0">SUM(D3:D3)</f>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>406</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1514</v>
+        <v>319</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1514</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>899</v>
+        <v>588</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>899</v>
+        <f t="shared" ref="E6:E11" si="1">SUM(D6:D6)</f>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>311</v>
+        <v>475</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>311</v>
+        <f t="shared" si="1"/>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>367</v>
+        <v>469</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>367</v>
+        <f t="shared" si="1"/>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -1413,27 +1415,42 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1987</v>
+        <v>326</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E10" si="1">SUM(D9:D9)</f>
-        <v>1987</v>
+        <f t="shared" si="1"/>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1825</v>
+        <v>315</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>1825</v>
-      </c>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>362</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
